--- a/data/input/XGS rates .xlsx
+++ b/data/input/XGS rates .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://africaiacom.sharepoint.com/sites/AIAProjects/Shared Documents/2025_PR17_Diverzify_SD/02. Working Packs/02. Phase 1/diverzify_freight_analysis/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F44B4BC7-50DC-4A36-84A1-BD84750CBC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56C72491-D853-47BD-8F33-07D05E7C7953}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{F44B4BC7-50DC-4A36-84A1-BD84750CBC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCD7BDA5-E4E2-4DCD-9D29-D7B4DD8A52E7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7FADBD7-C8B9-4D81-BC1E-F58C366D0595}"/>
   </bookViews>
@@ -44,36 +44,6 @@
     <t xml:space="preserve">Commodity </t>
   </si>
   <si>
-    <t>L5C</t>
-  </si>
-  <si>
-    <t>5C</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>2M</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>5M</t>
-  </si>
-  <si>
-    <t>10M</t>
-  </si>
-  <si>
-    <t>20M</t>
-  </si>
-  <si>
-    <t>30M</t>
-  </si>
-  <si>
-    <t>40M</t>
-  </si>
-  <si>
     <t>CWT</t>
   </si>
   <si>
@@ -114,13 +84,43 @@
   </si>
   <si>
     <t>Ceramic</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>40000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +166,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D137F26A-17BA-48F3-A3DF-3B097E125C9C}" name="Table1" displayName="Table1" ref="B2:O17" totalsRowShown="0">
+  <autoFilter ref="B2:O17" xr:uid="{D137F26A-17BA-48F3-A3DF-3B097E125C9C}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{569E57E8-4BFB-4A6A-B23B-86A49C07F787}" name="DESTINATION "/>
+    <tableColumn id="2" xr3:uid="{75EE633E-09C9-4EBB-92B2-291F9528ABDC}" name="SITE"/>
+    <tableColumn id="3" xr3:uid="{F403F4FC-8425-44E5-99FE-63F4E83B6AE9}" name="UNIT "/>
+    <tableColumn id="4" xr3:uid="{CAB3FDCE-2149-4492-8483-1FB88B277606}" name="Commodity "/>
+    <tableColumn id="5" xr3:uid="{67C4E5DB-7007-4F83-9182-7ABFC7AD79C9}" name="500"/>
+    <tableColumn id="6" xr3:uid="{0483F090-1D09-4EB0-A600-83A099F1A2E7}" name="1000"/>
+    <tableColumn id="7" xr3:uid="{B5DB6E5D-CA18-4620-91A4-52F1EEB54133}" name="2000"/>
+    <tableColumn id="8" xr3:uid="{08926CDE-A0BC-4FE0-8112-136F0B418B2E}" name="3000"/>
+    <tableColumn id="9" xr3:uid="{7181A4E1-C3C8-4CB7-B4CD-8DC51A7158A8}" name="4000"/>
+    <tableColumn id="10" xr3:uid="{A48F5642-CD86-425B-A7BD-8D84FA311CBC}" name="5000"/>
+    <tableColumn id="11" xr3:uid="{7929CB4D-4B65-43B6-93ED-8DE1C5A0A39D}" name="10000"/>
+    <tableColumn id="12" xr3:uid="{E2098FED-5A39-448B-9BD6-3CEA6BBB9729}" name="20000"/>
+    <tableColumn id="13" xr3:uid="{1051CD40-6E82-4B89-98C4-D599B23766C9}" name="30000"/>
+    <tableColumn id="14" xr3:uid="{CDE1AA04-2FA8-46D0-9B8D-7CD2926E3C27}" name="40000"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,724 +508,729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E6DD05-21BF-464E-A23C-FE45F61885CF}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:X12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="19" max="19" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2">
-        <v>20.57</v>
-      </c>
-      <c r="F2">
-        <v>18.739999999999998</v>
-      </c>
-      <c r="G2">
-        <v>14.53</v>
-      </c>
-      <c r="H2">
-        <v>11.69</v>
-      </c>
-      <c r="I2">
-        <v>11.69</v>
-      </c>
-      <c r="J2">
-        <v>9.07</v>
-      </c>
-      <c r="K2">
-        <v>7.64</v>
-      </c>
-      <c r="L2">
-        <v>7.64</v>
-      </c>
-      <c r="M2">
-        <v>7.64</v>
-      </c>
-      <c r="N2">
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>22.87</v>
-      </c>
       <c r="F3">
-        <v>20.85</v>
+        <v>20.57</v>
       </c>
       <c r="G3">
-        <v>16.16</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="H3">
-        <v>13</v>
+        <v>14.53</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>11.69</v>
       </c>
       <c r="J3">
-        <v>10.19</v>
+        <v>11.69</v>
       </c>
       <c r="K3">
-        <v>8.49</v>
+        <v>9.07</v>
       </c>
       <c r="L3">
-        <v>8.49</v>
+        <v>7.64</v>
       </c>
       <c r="M3">
-        <v>8.49</v>
+        <v>7.64</v>
       </c>
       <c r="N3">
-        <v>8.49</v>
+        <v>7.64</v>
+      </c>
+      <c r="O3">
+        <v>7.64</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>22.87</v>
+      </c>
+      <c r="G4">
+        <v>20.85</v>
+      </c>
+      <c r="H4">
+        <v>16.16</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>10.19</v>
+      </c>
+      <c r="L4">
+        <v>8.49</v>
+      </c>
+      <c r="M4">
+        <v>8.49</v>
+      </c>
+      <c r="N4">
+        <v>8.49</v>
+      </c>
+      <c r="O4">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
         <v>45.29</v>
       </c>
-      <c r="F4">
+      <c r="G5">
         <v>41.28</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>232.01</v>
       </c>
-      <c r="H4">
+      <c r="I5">
         <v>25.74</v>
       </c>
-      <c r="I4">
+      <c r="J5">
         <v>25.74</v>
       </c>
-      <c r="J4">
+      <c r="K5">
         <v>20.170000000000002</v>
       </c>
-      <c r="K4">
+      <c r="L5">
         <v>14.95</v>
       </c>
-      <c r="L4">
+      <c r="M5">
         <v>14.95</v>
       </c>
-      <c r="M4">
+      <c r="N5">
         <v>14.95</v>
       </c>
-      <c r="N4">
+      <c r="O5">
         <v>14.95</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>0.43659999999999999</v>
       </c>
-      <c r="F5">
+      <c r="G6">
         <v>0.4249</v>
       </c>
-      <c r="G5">
+      <c r="H6">
         <v>0.41899999999999998</v>
       </c>
-      <c r="H5">
+      <c r="I6">
         <v>0.41020000000000001</v>
       </c>
-      <c r="I5">
+      <c r="J6">
         <v>0.39550000000000002</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>0.74219999999999997</v>
-      </c>
-      <c r="F6">
-        <v>0.72230000000000005</v>
-      </c>
-      <c r="G6">
-        <v>0.71230000000000004</v>
-      </c>
-      <c r="H6">
-        <v>0.69740000000000002</v>
-      </c>
-      <c r="I6">
-        <v>0.6724</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="G7">
+        <v>0.72230000000000005</v>
+      </c>
+      <c r="H7">
+        <v>0.71230000000000004</v>
+      </c>
+      <c r="I7">
+        <v>0.69740000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.6724</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
         <v>22.81</v>
       </c>
-      <c r="F7">
+      <c r="G8">
         <v>20.79</v>
       </c>
-      <c r="G7">
+      <c r="H8">
         <v>16.13</v>
       </c>
-      <c r="H7">
+      <c r="I8">
         <v>12.96</v>
       </c>
-      <c r="I7">
+      <c r="J8">
         <v>12.96</v>
       </c>
-      <c r="J7">
+      <c r="K8">
         <v>10.050000000000001</v>
       </c>
-      <c r="K7">
+      <c r="L8">
         <v>8.4600000000000009</v>
       </c>
-      <c r="L7">
+      <c r="M8">
         <v>8.4600000000000009</v>
       </c>
-      <c r="M7">
+      <c r="N8">
         <v>8.4600000000000009</v>
       </c>
-      <c r="N7">
+      <c r="O8">
         <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9">
         <v>25.37</v>
       </c>
-      <c r="F8">
+      <c r="G9">
         <v>23.13</v>
       </c>
-      <c r="G8">
+      <c r="H9">
         <v>17.940000000000001</v>
       </c>
-      <c r="H8">
+      <c r="I9">
         <v>14.41</v>
       </c>
-      <c r="I8">
+      <c r="J9">
         <v>14.41</v>
       </c>
-      <c r="J8">
+      <c r="K9">
         <v>11.3</v>
       </c>
-      <c r="K8">
+      <c r="L9">
         <v>9.42</v>
       </c>
-      <c r="L8">
+      <c r="M9">
         <v>9.42</v>
       </c>
-      <c r="M8">
+      <c r="N9">
         <v>9.42</v>
       </c>
-      <c r="N8">
+      <c r="O9">
         <v>9.42</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>50.23</v>
-      </c>
-      <c r="F9">
-        <v>45.79</v>
-      </c>
-      <c r="G9">
-        <v>35.51</v>
-      </c>
-      <c r="H9">
-        <v>28.54</v>
-      </c>
-      <c r="I9">
-        <v>28.54</v>
-      </c>
-      <c r="J9">
-        <v>22.37</v>
-      </c>
-      <c r="K9">
-        <v>16.57</v>
-      </c>
-      <c r="L9">
-        <v>16.57</v>
-      </c>
-      <c r="M9">
-        <v>16.57</v>
-      </c>
-      <c r="N9">
-        <v>16.57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0.46079999999999999</v>
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>0.44969999999999999</v>
+        <v>50.23</v>
       </c>
       <c r="G10">
-        <v>0.44240000000000002</v>
+        <v>45.79</v>
       </c>
       <c r="H10">
-        <v>0.435</v>
+        <v>35.51</v>
       </c>
       <c r="I10">
-        <v>0.41660000000000003</v>
+        <v>28.54</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>28.54</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22.37</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16.57</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.57</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>16.57</v>
+      </c>
+      <c r="O10">
+        <v>16.57</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.44969999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.44240000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.435</v>
+      </c>
+      <c r="J11">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>0.78339999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.76459999999999995</v>
+      </c>
+      <c r="H12">
+        <v>0.752</v>
+      </c>
+      <c r="I12">
+        <v>0.73939999999999995</v>
+      </c>
+      <c r="J12">
+        <v>0.70820000000000005</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="E11">
-        <v>0.78339999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.76459999999999995</v>
-      </c>
-      <c r="G11">
-        <v>0.752</v>
-      </c>
-      <c r="H11">
-        <v>0.73939999999999995</v>
-      </c>
-      <c r="I11">
-        <v>0.70820000000000005</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
+      <c r="F13">
+        <v>22.81</v>
+      </c>
+      <c r="G13">
+        <v>20.79</v>
+      </c>
+      <c r="H13">
+        <v>16.13</v>
+      </c>
+      <c r="I13">
+        <v>12.96</v>
+      </c>
+      <c r="J13">
+        <v>12.96</v>
+      </c>
+      <c r="K13">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="L13">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="M13">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="N13">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="O13">
+        <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>22.81</v>
-      </c>
-      <c r="F12">
-        <v>20.79</v>
-      </c>
-      <c r="G12">
-        <v>16.13</v>
-      </c>
-      <c r="H12">
-        <v>12.96</v>
-      </c>
-      <c r="I12">
-        <v>12.96</v>
-      </c>
-      <c r="J12">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="K12">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="L12">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="M12">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="N12">
-        <v>8.4600000000000009</v>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>25.37</v>
+      </c>
+      <c r="G14">
+        <v>23.13</v>
+      </c>
+      <c r="H14">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="I14">
+        <v>14.14</v>
+      </c>
+      <c r="J14">
+        <v>14.14</v>
+      </c>
+      <c r="K14">
+        <v>11.3</v>
+      </c>
+      <c r="L14">
+        <v>9.42</v>
+      </c>
+      <c r="M14">
+        <v>9.42</v>
+      </c>
+      <c r="N14">
+        <v>9.42</v>
+      </c>
+      <c r="O14">
+        <v>9.42</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>25.37</v>
-      </c>
-      <c r="F13">
-        <v>23.13</v>
-      </c>
-      <c r="G13">
-        <v>17.940000000000001</v>
-      </c>
-      <c r="H13">
-        <v>14.14</v>
-      </c>
-      <c r="I13">
-        <v>14.14</v>
-      </c>
-      <c r="J13">
-        <v>11.3</v>
-      </c>
-      <c r="K13">
-        <v>9.42</v>
-      </c>
-      <c r="L13">
-        <v>9.42</v>
-      </c>
-      <c r="M13">
-        <v>9.42</v>
-      </c>
-      <c r="N13">
-        <v>9.42</v>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>50.23</v>
+      </c>
+      <c r="G15">
+        <v>45.79</v>
+      </c>
+      <c r="H15">
+        <v>35.51</v>
+      </c>
+      <c r="I15">
+        <v>28.54</v>
+      </c>
+      <c r="J15">
+        <v>28.54</v>
+      </c>
+      <c r="K15">
+        <v>22.37</v>
+      </c>
+      <c r="L15">
+        <v>16.57</v>
+      </c>
+      <c r="M15">
+        <v>16.57</v>
+      </c>
+      <c r="N15">
+        <v>16.57</v>
+      </c>
+      <c r="O15">
+        <v>16.57</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>50.23</v>
-      </c>
-      <c r="F14">
-        <v>45.79</v>
-      </c>
-      <c r="G14">
-        <v>35.51</v>
-      </c>
-      <c r="H14">
-        <v>28.54</v>
-      </c>
-      <c r="I14">
-        <v>28.54</v>
-      </c>
-      <c r="J14">
-        <v>22.37</v>
-      </c>
-      <c r="K14">
-        <v>16.57</v>
-      </c>
-      <c r="L14">
-        <v>16.57</v>
-      </c>
-      <c r="M14">
-        <v>16.57</v>
-      </c>
-      <c r="N14">
-        <v>16.57</v>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>0.4521</v>
+      </c>
+      <c r="G16">
+        <v>0.44119999999999998</v>
+      </c>
+      <c r="H16">
+        <v>0.43390000000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="J16">
+        <v>0.40860000000000002</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="E15">
-        <v>0.4521</v>
-      </c>
-      <c r="F15">
-        <v>0.44119999999999998</v>
-      </c>
-      <c r="G15">
-        <v>0.43390000000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.42670000000000002</v>
-      </c>
-      <c r="I15">
-        <v>0.40860000000000002</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17">
         <v>0.76849999999999996</v>
       </c>
-      <c r="F16">
+      <c r="G17">
         <v>0.75</v>
       </c>
-      <c r="G16">
+      <c r="H17">
         <v>0.73770000000000002</v>
       </c>
-      <c r="H16">
+      <c r="I17">
         <v>0.72540000000000004</v>
       </c>
-      <c r="I16">
+      <c r="J17">
         <v>0.6946</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
